--- a/stimuli_training_target.xlsx
+++ b/stimuli_training_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MATLAB\TypiTarget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B497E-9C15-421C-A049-9D86F0F50E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF32D1-BE0B-4125-9C43-1DC0B22EE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,25 +52,25 @@
     <t>p_perceptual</t>
   </si>
   <si>
-    <t>collov-home-design-UUsQk_9bdR8-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>ergonofis-hPCFOFtmNls-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>ergonofis-tdnYk4qOGhc-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-gochrisgoxyz-1648838.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-kamo11235-667838.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>spacejoy-3z_61bnbFhM-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>collov-home-design-UUsQk_9bdR8-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>ergonofis-hPCFOFtmNls-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>ergonofis-tdnYk4qOGhc-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-gochrisgoxyz-1648838_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-kamo11235-667838_resized.jpg</t>
+  </si>
+  <si>
+    <t>spacejoy-3z_61bnbFhM-unsplash_resized.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,12 +426,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -468,10 +468,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
